--- a/experiments/results/fewshot_experiments.xlsx
+++ b/experiments/results/fewshot_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA0D9CF-2E77-4BEE-B5D1-5925B56B8229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADA71D3-9905-4493-83CD-15DC8D8C8F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,155 +63,6 @@
 PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
 PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
 PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-SELECT ?trial ?protocolSpec
-WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
-    ?trial rdf:type obi:OBI_0000470 ;  # randomized controlled trial
-           obi:OBI_0000066 ?protocolSpec .  # has protocol specification
-  }
-}</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
-PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
-PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
-PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
-PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
-PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-SELECT DISTINCT ?trial_name ?protocol_spec
-WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
-    ?trial a obi:randomized_controlled_trial ;
-           dc:identifier ?trial_name ;
-           ro:has_part ?protocol .
-    ?protocol a obi:protocol ;
-              rdfs:label ?protocol_spec .
-  }
-}
-LIMIT 10</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
-PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
-PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
-PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
-PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
-PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-SELECT DISTINCT ?trial_name 
-(GROUP_CONCAT(DISTINCT LCASE(STR(?protocol_component)); separator="; ") AS ?protocol_specifications)
-WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
-    ?trial rdf:type obi:randomized_controlled_trial ;
-           dc:identifier ?trial_name ;
-           ro:has_part ?protocol .
-    ?protocol a obi:protocol ;
-              ro:has_part ?protocol_part .
-    ?protocol_part rdfs:label ?protocol_component .
-  }
-}
-GROUP BY ?trial_name
-LIMIT 10</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
-PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
-PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
-PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
-PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
-PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-SELECT DISTINCT ?trial_name 
-(GROUP_CONCAT(DISTINCT LCASE(STR(?protocol_spec)); SEPARATOR="; ") AS ?protocol_specifications)
-WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
-    ?trial a obi:randomized_controlled_trial ;
-           dc:identifier ?trial_name ;
-           ro:has_part ?protocol .
-    ?protocol a obi:protocol ;
-              ro:has_part ?spec_part .
-    ?spec_part a obi:protocol_specification ;
-               rdfs:label ?protocol_spec .
-  }
-}
-GROUP BY ?trial_name
-ORDER BY ?trial_name</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
-PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
-PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
-PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
-PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
-PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-SELECT DISTINCT ?study_name 
-       (GROUP_CONCAT(DISTINCT LCASE(STR(?protocol_spec)); separator="; ") AS ?protocol_specifications)
-WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
-      ?study_design dc:identifier ?study_name ;
-                    ro:has_part ?protocol .
-      ?protocol a obi:protocol ;
-                ro:has_part ?protocol_component .
-      ?protocol_component a ?protocol_type ;
-                          rdfs:label ?protocol_spec .
-      FILTER(contains(LCASE(STR(?protocol_type)),"randomized_controlled_trial") || 
-             contains(LCASE(STR(?protocol_spec)),"randomized controlled trial") ||
-             contains(LCASE(STR(?protocol_spec)),"rct"))
-  }
-}
-GROUP BY ?study_name
-ORDER BY ?study_name</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
-PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
-PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
-PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
-PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
-PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT
     ?study_name
 (GROUP_CONCAT(DISTINCT COALESCE(?part_uri); separator=";") AS ?all_parts_uri)
@@ -227,161 +78,6 @@
   }
 }
 GROUP BY ?study_name</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
-PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
-PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
-PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
-PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
-PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-SELECT DISTINCT ?study ?studyLabel
-WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
-    ?study rdf:type obi:OBI_0000066 ;  # OBI: study
-           rdfs:label ?studyLabel ;
-           ro:investigates ?condition .
-    ?condition rdfs:label ?condLabel .
-    FILTER(CONTAINS(LCASE(?condLabel), "heart failure"))
-  }
-}</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
-PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
-PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
-PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
-PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
-PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-SELECT DISTINCT ?study ?study_label
-WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
-    ?study a obi:study ;
-           rdfs:label ?study_label ;
-           ro:has_part ?protocol .
-    ?protocol a obi:protocol ;
-              ro:has_part ?criterion .
-    ?criterion a obi:eligibility_criterion ;
-               ro:has_part ?inclusion_criterion .
-    ?inclusion_criterion a obi:inclusion_criterion ;
-                         ro:has_part ?health_condition .
-    ?health_condition a obi:health_status_inclusion_criterion ;
-                      cmeo:has_value ?condition_value .
-    FILTER(CONTAINS(LCASE(STR(?condition_value)), "heart failure"))
-  }
-}
-ORDER BY ?study_label</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
-PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
-PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
-PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
-PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
-PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-SELECT DISTINCT ?study_name
-WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
-    ?study a obi:study_design_execution ;
-           dc:identifier ?study_name ;
-           ro:has_part ?part .
-    ?part a obi:health_status_inclusion_criterion ;
-          cmeo:has_value ?condition_value .
-    FILTER(CONTAINS(LCASE(STR(?condition_value)), "heart failure"))
-  }
-}
-ORDER BY ?study_name</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
-PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
-PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
-PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
-PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
-PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-SELECT DISTINCT ?study_name
-WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
-    ?study a obi:study_design_execution ;
-           dc:identifier ?study_name ;
-           ro:has_part ?condition_spec .
-    ?condition_spec a cmeo:condition_specification ;
-                    cmeo:has_value ?condition_value .
-    FILTER(CONTAINS(LCASE(STR(?condition_value)), "heart failure"))
-  }
-}
-ORDER BY ?study_name</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
-PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
-PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
-PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
-PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
-PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-SELECT DISTINCT ?study_name
-WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
-    ?study a obi:study_design_execution ;
-           dc:identifier ?study_name ;
-           ro:has_part ?protocol .
-    ?protocol a obi:protocol ;
-              ro:has_part ?eligibility_criterion .
-    ?eligibility_criterion a obi:eligibility_criterion ;
-                           ro:has_part ?inclusion_criterion .
-    ?inclusion_criterion a obi:inclusion_criterion ;
-                         ro:has_part ?inc_part .
-    ?inc_part a obi:health_status_inclusion_criterion ;
-              cmeo:has_value ?condition_value .
-    FILTER(CONTAINS(LCASE(STR(?condition_value)), "heart failure"))
-  }
-}
-ORDER BY ?study_name</t>
   </si>
   <si>
     <t xml:space="preserve">PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
@@ -582,7 +278,7 @@
 PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT DISTINCT ?study ?studyLabel ?population ?populationLabel ?characteristic ?characteristicLabel
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH  &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     ?study rdf:type obi:OBI_0000066 ;         # study
            rdfs:label ?studyLabel ;
            obi:has_specified_input ?population .
@@ -615,7 +311,7 @@
     (GROUP_CONCAT(DISTINCT COALESCE(?pop_char_uri); separator=";") AS ?all_population_characteristics_uri)
     (GROUP_CONCAT(DISTINCT COALESCE(?pop_char_value); separator=";") AS ?all_population_characteristics_value)
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH  &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
       ?study a cmeo:Study ;
              dc:identifier ?study_name ;
              ro:has_part ?population .
@@ -648,7 +344,7 @@
 (GROUP_CONCAT(DISTINCT LCASE(STR(?health_status)); SEPARATOR="; ") AS ?health_characteristics)
 (GROUP_CONCAT(DISTINCT LCASE(STR(?sample_size)); SEPARATOR="; ") AS ?sample_sizes)
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH  &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
       ?study a obi:study;
              dc:identifier ?study_name;
              ro:has_part ?population_char.
@@ -693,10 +389,314 @@
 PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
 PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
 PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT ?trial ?protocolSpec
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?trial rdf:type obi:OBI_0000470 ;  # randomized controlled trial
+           obi:OBI_0000066 ?protocolSpec .  # has protocol specification
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?trial_name ?protocol_spec
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?trial a obi:randomized_controlled_trial ;
+           dc:identifier ?trial_name ;
+           ro:has_part ?protocol .
+    ?protocol a obi:protocol ;
+              rdfs:label ?protocol_spec .
+  }
+}
+LIMIT 10</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?trial_name 
+(GROUP_CONCAT(DISTINCT LCASE(STR(?protocol_component)); separator="; ") AS ?protocol_specifications)
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?trial rdf:type obi:randomized_controlled_trial ;
+           dc:identifier ?trial_name ;
+           ro:has_part ?protocol .
+    ?protocol a obi:protocol ;
+              ro:has_part ?protocol_part .
+    ?protocol_part rdfs:label ?protocol_component .
+  }
+}
+GROUP BY ?trial_name
+LIMIT 10</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?trial_name 
+(GROUP_CONCAT(DISTINCT LCASE(STR(?protocol_spec)); SEPARATOR="; ") AS ?protocol_specifications)
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?trial a obi:randomized_controlled_trial ;
+           dc:identifier ?trial_name ;
+           ro:has_part ?protocol .
+    ?protocol a obi:protocol ;
+              ro:has_part ?spec_part .
+    ?spec_part a obi:protocol_specification ;
+               rdfs:label ?protocol_spec .
+  }
+}
+GROUP BY ?trial_name
+ORDER BY ?trial_name</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study_name 
+       (GROUP_CONCAT(DISTINCT LCASE(STR(?protocol_spec)); separator="; ") AS ?protocol_specifications)
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+      ?study_design dc:identifier ?study_name ;
+                    ro:has_part ?protocol .
+      ?protocol a obi:protocol ;
+                ro:has_part ?protocol_component .
+      ?protocol_component a ?protocol_type ;
+                          rdfs:label ?protocol_spec .
+      FILTER(contains(LCASE(STR(?protocol_type)),"randomized_controlled_trial") || 
+             contains(LCASE(STR(?protocol_spec)),"randomized controlled trial") ||
+             contains(LCASE(STR(?protocol_spec)),"rct"))
+  }
+}
+GROUP BY ?study_name
+ORDER BY ?study_name</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?studyLabel
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study rdf:type obi:OBI_0000066 ;  # OBI: study
+           rdfs:label ?studyLabel ;
+           ro:investigates ?condition .
+    ?condition rdfs:label ?condLabel .
+    FILTER(CONTAINS(LCASE(?condLabel), "heart failure"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?study_label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a obi:study ;
+           rdfs:label ?study_label ;
+           ro:has_part ?protocol .
+    ?protocol a obi:protocol ;
+              ro:has_part ?criterion .
+    ?criterion a obi:eligibility_criterion ;
+               ro:has_part ?inclusion_criterion .
+    ?inclusion_criterion a obi:inclusion_criterion ;
+                         ro:has_part ?health_condition .
+    ?health_condition a obi:health_status_inclusion_criterion ;
+                      cmeo:has_value ?condition_value .
+    FILTER(CONTAINS(LCASE(STR(?condition_value)), "heart failure"))
+  }
+}
+ORDER BY ?study_label</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study_name
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a obi:study_design_execution ;
+           dc:identifier ?study_name ;
+           ro:has_part ?part .
+    ?part a obi:health_status_inclusion_criterion ;
+          cmeo:has_value ?condition_value .
+    FILTER(CONTAINS(LCASE(STR(?condition_value)), "heart failure"))
+  }
+}
+ORDER BY ?study_name</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study_name
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a obi:study_design_execution ;
+           dc:identifier ?study_name ;
+           ro:has_part ?condition_spec .
+    ?condition_spec a cmeo:condition_specification ;
+                    cmeo:has_value ?condition_value .
+    FILTER(CONTAINS(LCASE(STR(?condition_value)), "heart failure"))
+  }
+}
+ORDER BY ?study_name</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study_name
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a obi:study_design_execution ;
+           dc:identifier ?study_name ;
+           ro:has_part ?protocol .
+    ?protocol a obi:protocol ;
+              ro:has_part ?eligibility_criterion .
+    ?eligibility_criterion a obi:eligibility_criterion ;
+                           ro:has_part ?inclusion_criterion .
+    ?inclusion_criterion a obi:inclusion_criterion ;
+                         ro:has_part ?inc_part .
+    ?inc_part a obi:health_status_inclusion_criterion ;
+              cmeo:has_value ?condition_value .
+    FILTER(CONTAINS(LCASE(STR(?condition_value)), "heart failure"))
+  }
+}
+ORDER BY ?study_name</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT DISTINCT ?study_name
 (GROUP_CONCAT(DISTINCT LCASE(STR(?pop_characteristic_value)); separator="; ") AS ?population_characteristics)
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
       ?study a obi:study_design_execution ;
              dc:identifier ?study_name ;
              ro:has_part ?population_spec .
@@ -728,7 +728,7 @@
 (GROUP_CONCAT(DISTINCT LCASE(STR(?char_label)); separator="; ") AS ?population_characteristics)
 (GROUP_CONCAT(DISTINCT LCASE(STR(?char_value)); separator="; ") AS ?population_values)
 WHERE {  
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
       ?study a obi:study_design_execution ;
              dc:identifier ?study_name ;
              ro:has_part ?population .
@@ -760,7 +760,7 @@
 PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT DISTINCT ?study ?studyLabel
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     ?study rdf:type obi:OBI_0001620 ;              # study entity
            rdfs:label ?studyLabel ;
            obi:has_specified_input ?population ;
@@ -792,7 +792,7 @@
 PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT DISTINCT ?study ?study_label ?population ?intervention ?comparison ?outcome
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     ?study a obi:study_design ;
            rdfs:label ?study_label ;
            ro:has_part ?pico_component .
@@ -822,7 +822,7 @@
 PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT DISTINCT ?study ?study_name ?p_value ?i_value ?c_value ?o_value
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     ?study dc:identifier ?study_name ;
            ro:has_part ?protocol .
     ?protocol a obi:protocol ;
@@ -869,7 +869,7 @@
 PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT DISTINCT ?study_name ?population ?intervention ?comparator ?outcome
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
       ?study dc:identifier ?study_name ;
              ro:has_part ?protocol .
       ?protocol a obi:protocol ;
@@ -901,135 +901,6 @@
 LIMIT 20</t>
   </si>
   <si>
-    <t>Generate only SPARQL for NL qs using RAG when needed.
-NL:  Which studies match the PICO criteria?
-#Must include prefix:
-PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
-PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
-PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
-PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
-PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
-PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-Shorten prefixes when possible
-#Must include graph GRAPH (GRAPH must be under where block): &lt;https://w3id.org/CDIO/graph/studies&gt;
-RAG - Fewshot examples with NL to SPARQL pairs:
-CQ2:Which studies investigated heart failure condition?
-PREFIX obi:  &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX dc:   &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo:  &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt; 
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-SELECT DISTINCT ?study_name ?description
-WHERE { 
-    GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
-        ?study_design dc:identifier ?study_name;
-            iao:is_about ?descriptor;
-            ro:has_part ?prot .
-        ?descriptor rdfs:label ?description.
-        ?prot a obi:protocol;
-          ro:has_part ?obj_spec.
-        ?obj_spec a obi:objective_specification ;
-            cmeo:has_value ?obj_val.
-        ?prot ro:has_part ?ec.
-        ?ec a obi:eligibility_criterion;
-            ro:has_part ?inc.
-        ?inc a obi:inclusion_criterion;
-            ro:has_part ?spec_inc.
-        ?spec_inc  cmeo:has_value ?inc_value.
-    FILTER(contains  (?obj_val,"heart failure") || contains  (?inc_value,"heart failure"))
-  }
-}
-CQ3:What are the population characteristics in different studies
-PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt; 
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-SELECT ?study_name (GROUP_CONCAT(DISTINCT LCASE(STR(?quality_value)); separator="; ") AS ?qualities)
-(GROUP_CONCAT(DISTINCT LCASE(STR(?quality_type)); separator="; ") AS ?quality_type)
-WHERE {
-GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
-	 ?study_design dc:identifier ?study_name ;
-            ro:has_part ?prot .
-        ?prot a obi:protocol ;
-            ro:has_part ?ec .
-        ?ec a obi:eligibility_criterion ;
-            ro:is_concretized_by ?hse_uri .
-        ?hse_uri ro:has_output ?population .
-        ?population a obi:population ;
-            ro:has_characteristic ?quality .
-        OPTIONAL { ?quality rdfs:label ?characteristic_value }
-        OPTIONAL { ?quality a  ?characteristic_type }
-}
-}
-GROUP BY ?study_name
-LIMIT 3
-CQ1: What are the protocol specifications of the randomized controlled trials?
-PREFIX obi:  &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX dc:   &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo:  &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt; 
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-SELECT
-    ?study_name
-(GROUP_CONCAT(DISTINCT COALESCE(?part_uri); separator=";") AS ?all_parts_uri)
-(GROUP_CONCAT(DISTINCT COALESCE(?part_value); separator=";") AS ?all_parts_value)
-WHERE {
-  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
-      ?study  a cmeo:randomized_controlled_trial;
-      			ro:has_part   ?protocol;
-              dc:identifier ?study_name.
-      ?protocol a obi:protocol;
-              (ro:has_part)+ ?part_uri .
-      ?part_uri cmeo:has_value ?part_value.
-  }
-}
-GROUP BY ?study_name
-CQ9: What studies permit data access for research on congestive heart failure, subject to ethics-approval?
-PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX dc:  &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX cmeo:&lt;https://w3id.org/CMEO/&gt; 
-PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;         
-PREFIX duo:  &lt;http://purl.obolibrary.org/obo/duo/&gt;
-SELECT ?study_name
-WHERE {
-  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
-    ?assignment a cmeo:data_use_permission_assignment ;
-                iao:is_about ?x_study ;
-                obi:has_specified_output ?data_policy ;
-                obi:has_specified_output ?data_modifier .
-    ?x_study a obi:study_design_execution ;
-             dc:identifier ?study_name .
-    ?data_policy a duo:data_use_permission ;
-                 rdfs:label "disease specific research"^^xsd:string ;
-                 iao:is_about ?disease_code .
-    ?data_modifier a duo:data_use_modifier ;
-                   rdfs:label "ethics approval required"^^xsd:string .
-    OPTIONAL { ?disease_code rdfs:label "congestive heart failure"^^xsd:string }
-    OPTIONAL { ?disease_code cmeo:has_value "42343007"^^xsd:string }
-  }
-}
-ORDER BY ?study_name</t>
-  </si>
-  <si>
     <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
@@ -1047,7 +918,7 @@
 PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT DISTINCT ?study ?studyLabel ?accessCondition
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     ?study rdf:type obi:OBI_0000066 ;                  # Study entity
            rdfs:label ?studyLabel ;
            ro:has_part ?dataAccess .
@@ -1062,6 +933,70 @@
 }</t>
   </si>
   <si>
+    <t>PREFIX rdf:  &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd:  &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX dc:   &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo:  &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi:  &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro:   &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao:  &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio:  &lt;http://semanticscience.org/ontology/sio.owl/&gt;
+PREFIX duo:  &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
+PREFIX stato:&lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi:  &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd:   &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study_name ?description ?data_access_condition
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+      ?study dc:identifier ?study_name ;
+             iao:is_about ?topic ;
+             rdfs:comment ?description ;
+             obi:has_specified_output ?data_access_policy .
+      ?topic rdfs:label ?topic_label .
+      ?data_access_policy a duo:DUO_0000021 ;  # data use permission
+                          rdfs:label ?data_access_condition .
+      FILTER (CONTAINS(LCASE(?topic_label), "congestive heart failure"))
+      FILTER (CONTAINS(LCASE(?data_access_condition), "ethics") || 
+              CONTAINS(LCASE(?data_access_condition), "approval"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt;
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study_name ?description ?data_access_type
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study_design dc:identifier ?study_name ;
+                  iao:is_about ?descriptor ;
+                  ro:has_part ?data_access_policy .
+    ?descriptor rdfs:label ?description .
+    ?data_access_policy a duo:DUO_0000021 ;  # Data use permission class
+                        rdfs:label ?data_access_type ;
+                        duo:DUO_0000007 ?ethics_req . # Ethics approval required
+    ?ethics_req rdfs:label ?ethics_label .
+    FILTER(CONTAINS(LCASE(STR(?description)), "congestive heart failure"))
+    FILTER(CONTAINS(LCASE(STR(?ethics_label)), "ethics"))
+  }
+}</t>
+  </si>
+  <si>
     <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
@@ -1079,7 +1014,7 @@
 PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT DISTINCT ?study_name ?description ?access_condition
 WHERE { 
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     ?study_design dc:identifier ?study_name ;
         iao:is_about ?descriptor ;
         ro:has_part ?data_access_policy .
@@ -1110,7 +1045,7 @@
 PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT DISTINCT ?study_name ?access_condition ?ethics_requirement
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
       ?study_design dc:identifier ?study_name ;
                     iao:is_about ?topic ;
                     ro:has_part ?data_access_policy .
@@ -1143,53 +1078,22 @@
 PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
 PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
 PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-SELECT DISTINCT ?study_name ?description ?data_access_type
-WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+SELECT DISTINCT ?study_name ?pico_component ?pico_value
+WHERE { 
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     ?study_design dc:identifier ?study_name ;
-                  iao:is_about ?descriptor ;
-                  ro:has_part ?data_access_policy .
-    ?descriptor rdfs:label ?description .
-    ?data_access_policy a duo:DUO_0000021 ;  # Data use permission class
-                        rdfs:label ?data_access_type ;
-                        duo:DUO_0000007 ?ethics_req . # Ethics approval required
-    ?ethics_req rdfs:label ?ethics_label .
-    FILTER(CONTAINS(LCASE(STR(?description)), "congestive heart failure"))
-    FILTER(CONTAINS(LCASE(STR(?ethics_label)), "ethics"))
-  }
-}</t>
-  </si>
-  <si>
-    <t>PREFIX rdf:  &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd:  &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX dc:   &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX bfo:  &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
-PREFIX obi:  &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX ro:   &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-PREFIX iao:  &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
-PREFIX sio:  &lt;http://semanticscience.org/ontology/sio.owl/&gt;
-PREFIX duo:  &lt;http://purl.obolibrary.org/obo/duo/&gt;
-PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt;
-PREFIX stato:&lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
-PREFIX cdi:  &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
-PREFIX cd:   &lt;http://citydata.wu.ac.at/ns#&gt;
-PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
-SELECT DISTINCT ?study_name ?description ?data_access_condition
-WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
-      ?study dc:identifier ?study_name ;
-             iao:is_about ?topic ;
-             rdfs:comment ?description ;
-             obi:has_specified_output ?data_access_policy .
-      ?topic rdfs:label ?topic_label .
-      ?data_access_policy a duo:DUO_0000021 ;  # data use permission
-                          rdfs:label ?data_access_condition .
-      FILTER (CONTAINS(LCASE(?topic_label), "congestive heart failure"))
-      FILTER (CONTAINS(LCASE(?data_access_condition), "ethics") || 
-              CONTAINS(LCASE(?data_access_condition), "approval"))
-  }
-}</t>
+                  ro:has_part ?protocol .
+    ?protocol a obi:protocol ;
+              ro:has_part ?pico_part .
+    ?pico_part a ?pico_component ;
+               cmeo:has_value ?pico_value .
+    FILTER(?pico_component IN (obi:population_specification,
+                               obi:intervention_specification,
+                               obi:comparison_specification,
+                               obi:outcome_specification))
+  }
+}
+ORDER BY ?study_name</t>
   </si>
 </sst>
 </file>
@@ -1510,18 +1414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1544,67 +1449,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>25</v>
@@ -1613,12 +1519,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -1633,30 +1539,30 @@
         <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/results/fewshot_experiments.xlsx
+++ b/experiments/results/fewshot_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADA71D3-9905-4493-83CD-15DC8D8C8F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B04742-1E2C-4FE9-AE87-832AA46D33D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
